--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_400__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_400__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,13 +5417,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>3.197739839553833</c:v>
+                  <c:v>3.197739601135254</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.61051559448242</c:v>
+                  <c:v>37.61054229736328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.8781852722168</c:v>
+                  <c:v>48.87813949584961</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>39.49225234985352</c:v>
@@ -5435,7 +5435,7 @@
                   <c:v>75.41197204589844</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.5119121074676514</c:v>
+                  <c:v>-0.5119106769561768</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.513906002044678</c:v>
@@ -5444,13 +5444,13 @@
                   <c:v>89.43016052246094</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.738108396530151</c:v>
+                  <c:v>-1.738109827041626</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87.390380859375</c:v>
+                  <c:v>87.39041137695312</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.001907587051392</c:v>
+                  <c:v>-3.001906156539917</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-0.7035701870918274</c:v>
@@ -5459,7 +5459,7 @@
                   <c:v>73.86502075195312</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87.91374206542969</c:v>
+                  <c:v>87.91371917724609</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>84.38290405273438</c:v>
@@ -5468,13 +5468,13 @@
                   <c:v>71.56031799316406</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95.16065979003906</c:v>
+                  <c:v>95.16070556640625</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-1.74374258518219</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>102.1626510620117</c:v>
+                  <c:v>102.1627960205078</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>76.52972412109375</c:v>
@@ -5483,13 +5483,13 @@
                   <c:v>92.806640625</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3957837522029877</c:v>
+                  <c:v>0.3957859575748444</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.816520690917969</c:v>
+                  <c:v>-1.816519975662231</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7646085023880005</c:v>
+                  <c:v>0.7646073698997498</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>-2.093942642211914</c:v>
@@ -5498,67 +5498,67 @@
                   <c:v>-3.263981342315674</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.125258088111877</c:v>
+                  <c:v>-1.125254392623901</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>79.38870239257812</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-1.253808498382568</c:v>
+                  <c:v>-1.253806233406067</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>95.91068267822266</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>92.11087799072266</c:v>
+                  <c:v>92.11088562011719</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-0.378130316734314</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>88.11830139160156</c:v>
+                  <c:v>88.11832427978516</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.6598616242408752</c:v>
+                  <c:v>-0.6598623394966125</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>88.25220489501953</c:v>
+                  <c:v>88.252197265625</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.05708909034729</c:v>
+                  <c:v>-1.057090640068054</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>81.74274444580078</c:v>
+                  <c:v>81.74273681640625</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>73.34404754638672</c:v>
+                  <c:v>73.34403228759766</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>29.50851440429688</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>90.75635528564453</c:v>
+                  <c:v>90.75634765625</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-1.15368914604187</c:v>
+                  <c:v>-1.153692126274109</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>85.80461120605469</c:v>
+                  <c:v>85.80463409423828</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>100.046630859375</c:v>
+                  <c:v>100.0466537475586</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.4273088574409485</c:v>
+                  <c:v>-0.4273073971271515</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.4710166454315186</c:v>
+                  <c:v>-0.4710159301757812</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>106.0044479370117</c:v>
+                  <c:v>106.0044937133789</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.664590060710907</c:v>
+                  <c:v>-0.6645908355712891</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>-1.659975171089172</c:v>
@@ -5570,88 +5570,88 @@
                   <c:v>86.58863830566406</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.790752649307251</c:v>
+                  <c:v>3.790751934051514</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>91.64405059814453</c:v>
+                  <c:v>91.64413452148438</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>93.62712097167969</c:v>
+                  <c:v>93.62711334228516</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>96.08396911621094</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.5689849257469177</c:v>
+                  <c:v>-0.5689842104911804</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>103.8184204101562</c:v>
+                  <c:v>103.8183746337891</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>84.00980377197266</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.9535050392150879</c:v>
+                  <c:v>-0.9535042643547058</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>89.02703094482422</c:v>
+                  <c:v>89.02702331542969</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.9258169531822205</c:v>
+                  <c:v>-0.9258162379264832</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.9767864346504211</c:v>
+                  <c:v>-0.9767879247665405</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>30.16541481018066</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-2.901836156845093</c:v>
+                  <c:v>-2.901835441589355</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>98.73805236816406</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1062314659357071</c:v>
+                  <c:v>0.1062336713075638</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>77.71395111083984</c:v>
+                  <c:v>77.71393585205078</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-1.696838855743408</c:v>
+                  <c:v>-1.696834325790405</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>90.75164031982422</c:v>
+                  <c:v>90.75163269042969</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>103.6945419311523</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>100.2276153564453</c:v>
+                  <c:v>100.227668762207</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>87.86464691162109</c:v>
+                  <c:v>87.86460113525391</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>100.1140594482422</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.5250834822654724</c:v>
+                  <c:v>-0.5250841975212097</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>97.95814514160156</c:v>
+                  <c:v>97.95809936523438</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>104.802490234375</c:v>
+                  <c:v>104.8025894165039</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>72.56060791015625</c:v>
+                  <c:v>72.56063842773438</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>84.59567260742188</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.3118012845516205</c:v>
+                  <c:v>0.3118005394935608</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>43.88177871704102</c:v>
@@ -5660,16 +5660,16 @@
                   <c:v>97.32033538818359</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>61.21381378173828</c:v>
+                  <c:v>61.21385955810547</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>-1.953169345855713</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.8072919845581055</c:v>
+                  <c:v>-0.8072926998138428</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>94.58475494384766</c:v>
+                  <c:v>94.58473205566406</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0.08954822272062302</c:v>
@@ -5678,13 +5678,13 @@
                   <c:v>22.82862854003906</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>96.34717559814453</c:v>
+                  <c:v>96.34719848632812</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.6454833149909973</c:v>
+                  <c:v>-0.6454848051071167</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>95.6839599609375</c:v>
+                  <c:v>95.68389129638672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.197739839553833</v>
+        <v>3.197739601135254</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.61051559448242</v>
+        <v>37.61054229736328</v>
       </c>
       <c r="G3">
         <v>113</v>
@@ -6443,7 +6443,7 @@
         <v>31.3344</v>
       </c>
       <c r="F4">
-        <v>48.8781852722168</v>
+        <v>48.87813949584961</v>
       </c>
       <c r="G4">
         <v>113</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.5119121074676514</v>
+        <v>-0.5119106769561768</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-1.738108396530151</v>
+        <v>-1.738109827041626</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>91.3809</v>
       </c>
       <c r="F12">
-        <v>87.390380859375</v>
+        <v>87.39041137695312</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>-3.001907587051392</v>
+        <v>-3.001906156539917</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>92.98990000000001</v>
       </c>
       <c r="F16">
-        <v>87.91374206542969</v>
+        <v>87.91371917724609</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>95.6887</v>
       </c>
       <c r="F19">
-        <v>95.16065979003906</v>
+        <v>95.16070556640625</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>98.4349</v>
       </c>
       <c r="F21">
-        <v>102.1626510620117</v>
+        <v>102.1627960205078</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3957837522029877</v>
+        <v>0.3957859575748444</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-1.816520690917969</v>
+        <v>-1.816519975662231</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.7646085023880005</v>
+        <v>0.7646073698997498</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-1.125258088111877</v>
+        <v>-1.125254392623901</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>-1.253808498382568</v>
+        <v>-1.253806233406067</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>94.9969</v>
       </c>
       <c r="F33">
-        <v>92.11087799072266</v>
+        <v>92.11088562011719</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>97.8249</v>
       </c>
       <c r="F35">
-        <v>88.11830139160156</v>
+        <v>88.11832427978516</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>-0.6598616242408752</v>
+        <v>-0.6598623394966125</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>93.1272</v>
       </c>
       <c r="F37">
-        <v>88.25220489501953</v>
+        <v>88.252197265625</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-1.05708909034729</v>
+        <v>-1.057090640068054</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>81.6122</v>
       </c>
       <c r="F39">
-        <v>81.74274444580078</v>
+        <v>81.74273681640625</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>60.3363</v>
       </c>
       <c r="F40">
-        <v>73.34404754638672</v>
+        <v>73.34403228759766</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>94.5993</v>
       </c>
       <c r="F42">
-        <v>90.75635528564453</v>
+        <v>90.75634765625</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-1.15368914604187</v>
+        <v>-1.153692126274109</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>97.666</v>
       </c>
       <c r="F44">
-        <v>85.80461120605469</v>
+        <v>85.80463409423828</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>97.0868</v>
       </c>
       <c r="F45">
-        <v>100.046630859375</v>
+        <v>100.0466537475586</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>-0.4273088574409485</v>
+        <v>-0.4273073971271515</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-0.4710166454315186</v>
+        <v>-0.4710159301757812</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>96.9224</v>
       </c>
       <c r="F48">
-        <v>106.0044479370117</v>
+        <v>106.0044937133789</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>-0.664590060710907</v>
+        <v>-0.6645908355712891</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>3.790752649307251</v>
+        <v>3.790751934051514</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>93.3826</v>
       </c>
       <c r="F54">
-        <v>91.64405059814453</v>
+        <v>91.64413452148438</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>80.4803</v>
       </c>
       <c r="F55">
-        <v>93.62712097167969</v>
+        <v>93.62711334228516</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-0.5689849257469177</v>
+        <v>-0.5689842104911804</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>98.0081</v>
       </c>
       <c r="F58">
-        <v>103.8184204101562</v>
+        <v>103.8183746337891</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-0.9535050392150879</v>
+        <v>-0.9535042643547058</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>91.2393</v>
       </c>
       <c r="F61">
-        <v>89.02703094482422</v>
+        <v>89.02702331542969</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.9258169531822205</v>
+        <v>-0.9258162379264832</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-0.9767864346504211</v>
+        <v>-0.9767879247665405</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>-2.901836156845093</v>
+        <v>-2.901835441589355</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.1062314659357071</v>
+        <v>0.1062336713075638</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>77.71395111083984</v>
+        <v>77.71393585205078</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-1.696838855743408</v>
+        <v>-1.696834325790405</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>95.2567</v>
       </c>
       <c r="F70">
-        <v>90.75164031982422</v>
+        <v>90.75163269042969</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>98.3015</v>
       </c>
       <c r="F72">
-        <v>100.2276153564453</v>
+        <v>100.227668762207</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>89.2407</v>
       </c>
       <c r="F73">
-        <v>87.86464691162109</v>
+        <v>87.86460113525391</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>-0.5250834822654724</v>
+        <v>-0.5250841975212097</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>94.8021</v>
       </c>
       <c r="F76">
-        <v>97.95814514160156</v>
+        <v>97.95809936523438</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>98.31310000000001</v>
       </c>
       <c r="F77">
-        <v>104.802490234375</v>
+        <v>104.8025894165039</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>79.8989</v>
       </c>
       <c r="F78">
-        <v>72.56060791015625</v>
+        <v>72.56063842773438</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.3118012845516205</v>
+        <v>0.3118005394935608</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>61.4721</v>
       </c>
       <c r="F83">
-        <v>61.21381378173828</v>
+        <v>61.21385955810547</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-0.8072919845581055</v>
+        <v>-0.8072926998138428</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>95.40600000000001</v>
       </c>
       <c r="F86">
-        <v>94.58475494384766</v>
+        <v>94.58473205566406</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>97.99339999999999</v>
       </c>
       <c r="F89">
-        <v>96.34717559814453</v>
+        <v>96.34719848632812</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.6454833149909973</v>
+        <v>-0.6454848051071167</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>94.4374</v>
       </c>
       <c r="F91">
-        <v>95.6839599609375</v>
+        <v>95.68389129638672</v>
       </c>
     </row>
     <row r="92" spans="1:6">
